--- a/pflichtenheft.xlsx
+++ b/pflichtenheft.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hendrik\grossstadtjungle\orga\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Mindestens eine Tour</t>
   </si>
@@ -38,18 +33,6 @@
     <t>Portabilität</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>WindowsPhone</t>
-  </si>
-  <si>
-    <t>Blackberry</t>
-  </si>
-  <si>
     <t>nice to</t>
   </si>
   <si>
@@ -68,17 +51,56 @@
     <t>Tour</t>
   </si>
   <si>
-    <t>Tipps/Hinweise anzeigen</t>
-  </si>
-  <si>
     <t>Technische Spezifikationen</t>
+  </si>
+  <si>
+    <r>
+      <t>Führt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> durch Quadrate in Mannheim + 3 Straßen</t>
+    </r>
+  </si>
+  <si>
+    <t>Man kann an jeder Stelle einsteigen (Rundtour)</t>
+  </si>
+  <si>
+    <t>Rätsel sind beständig / Haben Bezug zum Standort</t>
+  </si>
+  <si>
+    <t>Tipps / Hinweise anzeigen</t>
+  </si>
+  <si>
+    <t>Lösung der Rätsel: Informationen über Standort</t>
+  </si>
+  <si>
+    <t>Hintergrundinformationen über Standort auf Abruf</t>
+  </si>
+  <si>
+    <t>Android 2.3</t>
+  </si>
+  <si>
+    <t>iOS (Iphone 3GS)</t>
+  </si>
+  <si>
+    <t>WindowsPhone 7</t>
+  </si>
+  <si>
+    <t>Blackberry 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +110,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,9 +144,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -178,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,122 +424,165 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B21" t="s">
         <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>